--- a/data/income_statement/2digits/size/61_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/61_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>61-Telecommunications</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>61-Telecommunications</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,299 +841,339 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>26396888.43348</v>
+        <v>26323876.2541</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>28381479.39167</v>
+        <v>28298846.37357</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>31422860.79117</v>
+        <v>31328733.75676</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>33364640.53793</v>
+        <v>33314535.77706</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>36471891.43121</v>
+        <v>36443795.91388</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>38599971.76349</v>
+        <v>38520609.76274</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>37318176.44966</v>
+        <v>42308148.43478</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>41895670.76871</v>
+        <v>49169178.97293</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>58622306.21224</v>
+        <v>58599588.78464</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>66698336.41886</v>
+        <v>66610284.59667</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>78439458.71418999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>78242419.6215</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>95874702.04700001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>24998659.33126</v>
+        <v>24946084.84827</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>27133284.74001</v>
+        <v>27075220.94509</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>30042422.40643</v>
+        <v>29987917.84935</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>31895613.5685</v>
+        <v>31855001.144</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>34925969.72964001</v>
+        <v>34903983.93433</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>36776081.32446</v>
+        <v>36746955.44869</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>35828073.04525</v>
+        <v>40557635.6568</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>40464493.07103999</v>
+        <v>47368039.33262999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>56583200.82042</v>
+        <v>56564625.62901</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>64568339.09098</v>
+        <v>64494339.43931</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>75639702.17027999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>75466368.52410999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>93273009.875</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1299704.83811</v>
+        <v>1279312.28901</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1120877.23997</v>
+        <v>1096425.48431</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1254361.09291</v>
+        <v>1217215.68479</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1320359.75412</v>
+        <v>1314304.4748</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1383956.28493</v>
+        <v>1378839.64117</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1609438.26421</v>
+        <v>1560338.94061</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1394744.52902</v>
+        <v>1432645.98677</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1045770.72513</v>
+        <v>1391527.37684</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1568722.78138</v>
+        <v>1567732.22801</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1938939.28298</v>
+        <v>1928339.25531</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2693357.18538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2674652.5922</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2482156.526</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>98524.26411</v>
+        <v>98479.11682000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>127317.41169</v>
+        <v>127199.94417</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>126077.29183</v>
+        <v>123600.22262</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>148667.21531</v>
+        <v>145230.15826</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>161965.41664</v>
+        <v>160972.33838</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>214452.17482</v>
+        <v>213315.37344</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>95358.87539</v>
+        <v>317866.79121</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>385406.97254</v>
+        <v>409612.26346</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>470382.6104400001</v>
+        <v>467230.9276200001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>191058.0449</v>
+        <v>187605.90205</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>106399.35853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>101398.50519</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>119535.646</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>517492.61495</v>
+        <v>516839.87543</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1740305.93822</v>
+        <v>1739346.24928</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2249427.21424</v>
+        <v>2246235.44212</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1945523.11918</v>
+        <v>1942099.38898</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2611357.53418</v>
+        <v>2609573.13388</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2362779.94632</v>
+        <v>2361810.82792</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2819369.05145</v>
+        <v>2831034.08225</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4045909.664</v>
+        <v>4067993.58955</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6082678.410519999</v>
+        <v>6082677.49696</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8768668.111639999</v>
+        <v>8747970.36686</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>11968823.7884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11944960.22213</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>18457702.351</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>120397.71716</v>
+        <v>120208.70546</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>303394.2636599999</v>
+        <v>302771.46735</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>270224.17602</v>
+        <v>269736.7940399999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>327009.90768</v>
+        <v>326232.52759</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>313776.59337</v>
+        <v>313215.75965</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>297730.5346</v>
+        <v>296790.8567</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>339286.03935</v>
+        <v>349137.85883</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>402057.43395</v>
+        <v>423451.39962</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>438732.24937</v>
+        <v>438731.33581</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>411442.25648</v>
+        <v>409443.6610499999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>689533.5665700001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>684107.40772</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>564664.257</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>384549.6011900001</v>
+        <v>384092.0276</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1431847.46077</v>
+        <v>1431510.75374</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1962928.39386</v>
+        <v>1960226.29967</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1597495.29321</v>
+        <v>1594864.72013</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2268267.47556</v>
+        <v>2267043.90898</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2030523.6817</v>
+        <v>2030494.2412</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2427140.83931</v>
+        <v>2428924.77995</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3594190.29004</v>
+        <v>3594885.49992</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>5576345.704270001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8195871.659160001</v>
+        <v>8177172.509810001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>11140542.03621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11122104.62879</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17758459.368</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>12545.2966</v>
+        <v>12539.14237</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5064.21379</v>
+        <v>5064.02819</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>16274.64436</v>
+        <v>16272.34841</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>21017.91829</v>
+        <v>21002.14126</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>29313.46525</v>
@@ -1241,10 +1182,10 @@
         <v>34525.73002</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>52942.17279</v>
+        <v>52971.44347</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>49661.94001</v>
+        <v>49656.69001</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>67600.45688</v>
@@ -1255,209 +1196,239 @@
       <c r="M12" s="48" t="n">
         <v>138748.18562</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>134578.726</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>25879395.81853</v>
+        <v>25807036.37867</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>26641173.45345</v>
+        <v>26559500.12429</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>29173433.57693001</v>
+        <v>29082498.31464</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>31419117.41875</v>
+        <v>31372436.38808</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>33860533.89703</v>
+        <v>33834222.78</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>36237191.81717</v>
+        <v>36158798.93482</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>34498807.39821</v>
+        <v>39477114.35253</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>37849761.10471</v>
+        <v>45101185.38338</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>52539627.80172</v>
+        <v>52516911.28768</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>57929668.30722</v>
+        <v>57862314.22981</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>66470634.92579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>66297459.39937</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>77416999.69599999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>13944846.73436</v>
+        <v>13898931.30529</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>15489310.81912</v>
+        <v>15427005.81764</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>17405434.82538</v>
+        <v>17342387.36526</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>18663243.89952</v>
+        <v>18630306.40142</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>20845023.90526</v>
+        <v>20824335.29275</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>22491194.46164</v>
+        <v>22396147.91448</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>21797210.64458</v>
+        <v>26235574.41444</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>25269629.86299</v>
+        <v>30193896.51449</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>35953261.59017</v>
+        <v>35937208.0157</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>39772619.38338</v>
+        <v>39745822.48105</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>44114274.2043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>44022771.12758999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>51402092.255</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>141711.30288</v>
+        <v>133705.70965</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5876.383289999999</v>
+        <v>318.75111</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4409.68784</v>
+        <v>281.48761</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>22357.44091</v>
+        <v>21996.83454</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>34580.44879</v>
+        <v>34561.29283999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>31042.50474</v>
+        <v>30936.86786</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>23565.18108</v>
+        <v>22424.47941</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>18258.53481</v>
+        <v>18232.86663</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>19687.28776</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>217818.68481</v>
+        <v>200345.20828</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>406945.77439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>381116.69472</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>284522.645</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>431904.5965</v>
+        <v>423581.57373</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>663149.9154100001</v>
+        <v>649946.00248</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>799608.2977699999</v>
+        <v>784239.60048</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>485938.21869</v>
+        <v>478359.53345</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>447933.25053</v>
+        <v>447727.24225</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>500199.54022</v>
+        <v>440005.79833</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>484370.68562</v>
+        <v>444372.18303</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>897588.7258499999</v>
+        <v>912517.24654</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1269886.12601</v>
+        <v>1259402.06507</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>668087.5295800001</v>
+        <v>666166.68672</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>548621.79013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>546395.8860599999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1182856.266</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>13370606.78436</v>
+        <v>13341194.25356</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>14819696.55063</v>
+        <v>14776153.09426</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>16601220.96975</v>
+        <v>16557670.40715</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>18154818.42967</v>
+        <v>18129820.22318</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>20361414.09308</v>
+        <v>20342010.93748</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>21959939.64528</v>
+        <v>21925192.47689</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>21289274.77788</v>
+        <v>25768657.0228</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>24351871.75186</v>
+        <v>29261235.55085</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>34661535.95219</v>
+        <v>34655966.43866</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>38886713.16899001</v>
+        <v>38879310.58605</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>43158325.47606</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>43095258.54681</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>49934713.344</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>624.05062</v>
+        <v>449.76835</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>587.96979</v>
@@ -1469,13 +1440,13 @@
         <v>129.81025</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1096.11286</v>
+        <v>35.82018</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>12.7714</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>0</v>
+        <v>120.7292</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1910.85047</v>
@@ -1487,91 +1458,106 @@
         <v>0</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>381.16372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>11934549.08417</v>
+        <v>11908105.07338</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>11151862.63433</v>
+        <v>11132494.30665</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>11767998.75155</v>
+        <v>11740110.94938</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>12755873.51923</v>
+        <v>12742129.98666</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>13015509.99177</v>
+        <v>13009887.48725</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>13745997.35553</v>
+        <v>13762651.02034</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>12701596.75363</v>
+        <v>13241539.93809</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>12580131.24172</v>
+        <v>14907288.86889</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>16586366.21155</v>
+        <v>16579703.27198</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>18157048.92384</v>
+        <v>18116491.74876</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>22356360.72149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22274688.27178</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>26014907.441</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>8121431.103770001</v>
+        <v>8084056.116389999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>8335604.61817</v>
+        <v>8303917.850269999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>8963891.68843</v>
+        <v>8909607.861769998</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>8405823.14542</v>
+        <v>8365566.72009</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>8739981.986480001</v>
+        <v>8714034.449889999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>9210837.673079999</v>
+        <v>9180243.039320001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>8550515.954639999</v>
+        <v>9901472.736100001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>9862640.420209998</v>
+        <v>11902747.08697</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>13070040.56648</v>
+        <v>13058752.98427</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>14029670.49103</v>
+        <v>13997437.16959</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>16082274.28646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16008783.40566</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>16855136.636</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>15293.59037</v>
@@ -1592,199 +1578,224 @@
         <v>30406.94271</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>32506.43623</v>
+        <v>32297.94038</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>21773.67463</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>29381.32509</v>
+        <v>29182.07171</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>49811.98918</v>
+        <v>41138.51848000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>80473.18312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>68938.41048000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>94626.81299999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4492665.226899999</v>
+        <v>4490853.85155</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5071071.80026</v>
+        <v>5067867.73033</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5415410.7927</v>
+        <v>5404686.755100001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5484677.769189999</v>
+        <v>5478428.93283</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>5816809.501</v>
+        <v>5814962.017699999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>5924213.007420001</v>
+        <v>5911693.248619999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>5033360.69011</v>
+        <v>6135572.41208</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6238555.210010001</v>
+        <v>7294556.662909999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>8525656.739219999</v>
+        <v>8520380.513969999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>9214927.18743</v>
+        <v>9202198.66773</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>10600761.69056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>10588335.6218</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>11166744.244</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3613472.286499999</v>
+        <v>3577908.67447</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3262425.44535</v>
+        <v>3233942.74738</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3540037.18896</v>
+        <v>3496477.3999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2908900.94078</v>
+        <v>2874893.35181</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2901636.12045</v>
+        <v>2877536.06716</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3256217.72295</v>
+        <v>3238142.84799</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3484648.8283</v>
+        <v>3733602.38364</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3602311.53557</v>
+        <v>4586416.74943</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4515002.50217</v>
+        <v>4509190.39859</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4764931.314419999</v>
+        <v>4754099.98338</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5401039.41278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5351509.373379999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5593765.579</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3813117.9804</v>
+        <v>3824048.95699</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2816258.01616</v>
+        <v>2828576.45638</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2804107.063120001</v>
+        <v>2830503.08761</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4350050.373810001</v>
+        <v>4376563.26657</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4275528.005290001</v>
+        <v>4295853.03736</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4535159.68245</v>
+        <v>4582407.98102</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4151080.79899</v>
+        <v>3340067.20199</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2717490.82151</v>
+        <v>3004541.78192</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3516325.64507</v>
+        <v>3520950.28771</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4127378.432810001</v>
+        <v>4119054.57917</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6274086.435029999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6265904.866119999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9159770.805</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4201024.87995</v>
+        <v>3013879.72712</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4321004.12175</v>
+        <v>3184134.09392</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5831842.2471</v>
+        <v>4211069.09172</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>6015369.9511</v>
+        <v>4753164.743530001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>10276882.67484</v>
+        <v>9817105.352389999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7561924.35925</v>
+        <v>7425046.61551</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>8649216.76001</v>
+        <v>12061709.05373</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>15127698.07101</v>
+        <v>51835713.29598</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>31140540.72278</v>
+        <v>30905254.79215</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>75042326.73924001</v>
+        <v>74251901.55828999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>36088936.14993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>35851942.81562001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>45439158.889</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>320814.26445</v>
+        <v>127084.66219</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>230394.84011</v>
+        <v>162576.75888</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>191652.01466</v>
+        <v>134692.85061</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>509300.49431</v>
+        <v>433655.76961</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>183483.98366</v>
+        <v>82960.89766</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>106099.11157</v>
+        <v>103241.82039</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>10963.68331</v>
@@ -1801,92 +1812,107 @@
       <c r="M26" s="48" t="n">
         <v>15636.23697</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>8823.385</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1005911.17252</v>
+        <v>120789.22454</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1198615.29156</v>
+        <v>236298.28281</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1587383.68347</v>
+        <v>149070.01851</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1484952.3994</v>
+        <v>384504.70517</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>629105.17628</v>
+        <v>348362.79671</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>302912.35153</v>
+        <v>260689.04721</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>916730.50862</v>
+        <v>419487.49606</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>161728.33897</v>
+        <v>149926.25982</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>822014.1614700001</v>
+        <v>807300.22862</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>3062007.72851</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2852842.22078</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2834214.02258</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1326321.963</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>831202.21046</v>
+        <v>826385.1679100001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>904564.8386700001</v>
+        <v>888769.03324</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1167388.697</v>
+        <v>1128834.02428</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1141364.21588</v>
+        <v>1112464.57848</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>937016.4412900001</v>
+        <v>920473.27884</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1229201.87399</v>
+        <v>1202182.13868</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>907723.7856000002</v>
+        <v>962215.54746</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>668300.4375200002</v>
+        <v>732364.97778</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1265903.15226</v>
+        <v>1247622.61244</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1421110.61052</v>
+        <v>1383964.69954</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1369356.81621</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1352434.1527</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1059769.306</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>83524.91022000001</v>
+        <v>83506.64649</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>89387.34856999999</v>
@@ -1904,13 +1930,13 @@
         <v>40574.8136</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>52616.18347</v>
+        <v>32906.92625</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>33771.79305</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>22598.20447</v>
+        <v>22565.13335</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>27543.29475</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>140147.99603</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>162815.6</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>344904.81066</v>
+        <v>321243.25164</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>387860.0461399999</v>
+        <v>361262.30285</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>628964.00199</v>
+        <v>602625.83231</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>361858.3275</v>
+        <v>359556.53693</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>405517.29511</v>
+        <v>402686.59412</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>454261.531</v>
+        <v>452942.91448</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>488133.3957700001</v>
+        <v>560261.9119500001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>521221.50048</v>
+        <v>630911.1092999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>926384.0467299999</v>
+        <v>925261.26196</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>852436.1044999999</v>
+        <v>851365.2136299999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>778752.3352600001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>777578.3963500002</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>683157.845</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>138250.47679</v>
+        <v>138249.47421</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>22972.58267</v>
+        <v>22970.97578</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4397.928269999999</v>
+        <v>4380.51822</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3402.83829</v>
+        <v>3373.27195</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>8306.17822</v>
+        <v>8286.0106</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>9994.927169999999</v>
+        <v>9154.95192</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>35282.78449000001</v>
+        <v>35224.73439</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>957.1654400000001</v>
+        <v>19842.38446</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>91174.6798</v>
+        <v>91169.92869</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>368019.9716</v>
+        <v>118930.97565</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>274252.67879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>179768.15879</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>255279.594</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1046038.83932</v>
+        <v>992548.11956</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1116905.26974</v>
+        <v>1053910.96676</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1721410.01814</v>
+        <v>1666273.44098</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1752979.57819</v>
+        <v>1702519.03617</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7257623.84358</v>
+        <v>7203575.852100001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4365210.02554</v>
+        <v>4304850.59621</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4444125.97192</v>
+        <v>8019944.72024</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>11787759.16763</v>
+        <v>48253385.83815999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>25456753.44216999</v>
+        <v>25256490.49081</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>67646081.92502999</v>
+        <v>67144394.64196</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>27540578.04427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>27421156.67875</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>37644476.469</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2048,22 +2094,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>5.609</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0.493</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>3.649</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>4.559819999999999</v>
+        <v>0.15082</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,101 +2164,116 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>430378.19553</v>
+        <v>404073.18058</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>370303.90429</v>
+        <v>368958.42503</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>486056.0423099999</v>
+        <v>480608.15455</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>714118.7813799998</v>
+        <v>709698.0220700001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>814278.6702099999</v>
+        <v>809208.98587</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1053666.07585</v>
+        <v>1051410.33302</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1793640.03683</v>
+        <v>2020704.03407</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1941300.03005</v>
+        <v>2002855.70454</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2504753.514</v>
+        <v>2503885.6144</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1648623.74289</v>
+        <v>1647191.64281</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3117369.82162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3131007.17345</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4298514.727</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1792671.07119</v>
+        <v>1710052.71014</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1886688.39717</v>
+        <v>1809225.8113</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2675750.09409</v>
+        <v>2587970.99516</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2393261.45817</v>
+        <v>2371960.65636</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>9061609.098829998</v>
+        <v>9034190.13559</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5209340.204950001</v>
+        <v>5165968.47188</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6432842.59945</v>
+        <v>9152630.23343</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12585932.04835</v>
+        <v>49512965.60133</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>23498422.63531001</v>
+        <v>23396342.21443</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>71422976.8656</v>
+        <v>71330006.09659</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>31223603.43063</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>31051196.61308</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>45106870.192</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>32094.09738</v>
+        <v>32048.30064</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>39375.78448</v>
+        <v>39348.22890000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>43236.17561</v>
+        <v>43172.40876999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>40809.24304</v>
+        <v>40787.05757</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>31112.01038</v>
@@ -2230,35 +2296,40 @@
       <c r="M37" s="48" t="n">
         <v>12148.91128</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>11575.547</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>679005.8170800001</v>
+        <v>678898.22922</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>736098.9021699999</v>
+        <v>735928.6154700001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>708128.80275</v>
+        <v>707529.42597</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>668497.26384</v>
+        <v>666384.73852</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>843783.94142</v>
+        <v>839111.7638499999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>949302.98065</v>
+        <v>949013.15724</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>929135.89663</v>
+        <v>1190323.50397</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>777630.0614199999</v>
+        <v>1208709.13875</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1181861.83521</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1245568.18576</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1394779.471</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>111.61</v>
@@ -2308,74 +2384,84 @@
       <c r="M39" s="48" t="n">
         <v>76933.13421</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>42082.302</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1034445.92266</v>
+        <v>954007.1191900001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1027906.32069</v>
+        <v>951687.73811</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1771534.73805</v>
+        <v>1687879.58044</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1590413.09725</v>
+        <v>1572231.15613</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>8076786.157629999</v>
+        <v>8056538.96193</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4152008.42068</v>
+        <v>4110654.67062</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5441554.185999999</v>
+        <v>7895780.27518</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11394941.98024</v>
+        <v>47891760.20908999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>22202767.98975</v>
+        <v>22102616.65079</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>69611603.36826</v>
+        <v>69520046.54236001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>29689830.96013</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>29519568.34314</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>43349048.004</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1.022</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>4.739</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>3.248</v>
+        <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.8110000000000001</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>913.16748</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,152 +2516,172 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47013.62407</v>
+        <v>44987.45109</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>71378.51583000002</v>
+        <v>70333.37682</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>152795.04554</v>
+        <v>149334.42284</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>93517.09490000001</v>
+        <v>92537.68399999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>109843.6294</v>
+        <v>107344.18943</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>73125.99859</v>
+        <v>71401.08699000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>36888.42299</v>
+        <v>41263.17145</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>390093.86008</v>
+        <v>390143.27436</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>70508.19663999999</v>
+        <v>68579.11472</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>555539.5694000002</v>
+        <v>554125.62629</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>199122.23925</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>196978.03869</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>309384.868</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1215914.41968</v>
+        <v>787876.053</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>939388.8094800001</v>
+        <v>563801.68469</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1796661.35385</v>
+        <v>1173771.82234</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1414491.99622</v>
+        <v>904244.47507</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1195376.39684</v>
+        <v>1186791.51388</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1253760.60911</v>
+        <v>1248790.89926</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2179635.8047</v>
+        <v>3644395.91239</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5155237.750309999</v>
+        <v>5636696.404940001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9187034.789379999</v>
+        <v>9185079.00049</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8679934.098340001</v>
+        <v>8678069.480830001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7110377.001320001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7102938.403950001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6859337.221</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>796241.30301</v>
+        <v>784787.7877699999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>561057.42925</v>
+        <v>549102.1188299999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1172054.58123</v>
+        <v>1156723.97275</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>757863.72304</v>
+        <v>739244.22035</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>830340.2808899999</v>
+        <v>823304.24255</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>939106.68964</v>
+        <v>937409.80429</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>996567.22702</v>
+        <v>2463229.66279</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2953699.62857</v>
+        <v>3436255.72807</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5991320.550579999</v>
+        <v>5989364.76169</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7246681.010299999</v>
+        <v>7244816.39279</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4609105.78102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4605125.50065</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4365968.146</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>419673.11667</v>
+        <v>3088.26523</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>378331.38023</v>
+        <v>14699.56586</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>624606.7726200001</v>
+        <v>17047.84959</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>656628.2731799999</v>
+        <v>165000.25472</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>365036.1159500001</v>
+        <v>363487.27133</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>314653.91947</v>
+        <v>311381.09497</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1183068.57768</v>
+        <v>1181166.2496</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2201538.12174</v>
+        <v>2200440.67687</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>3195714.2388</v>
@@ -2579,115 +2690,130 @@
         <v>1433253.08804</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2501271.2203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2497812.9033</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2493369.075</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5005557.369480001</v>
+        <v>4339999.92097</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4311184.93126</v>
+        <v>3639683.05431</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>4163537.86228</v>
+        <v>3279829.36183</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6557666.87052</v>
+        <v>5853522.87867</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4295425.18446</v>
+        <v>3891976.74028</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5633983.22764</v>
+        <v>5592695.225389999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4187819.15485</v>
+        <v>2604750.1099</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>104019.0938600001</v>
+        <v>-309406.9283699999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1971408.94316</v>
+        <v>1844783.86494</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-933205.7918899999</v>
+        <v>-1637119.43996</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4029042.15301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3963712.66471</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2632722.281</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>588396.40388</v>
+        <v>586339.0899400001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>578561.5327400001</v>
+        <v>575493.7080799999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1075136.67637</v>
+        <v>755825.0485100001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>664212.0296099999</v>
+        <v>662030.70237</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>552562.3207099999</v>
+        <v>549933.01235</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>779504.7122999999</v>
+        <v>776732.69167</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>900310.37739</v>
+        <v>914657.56887</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>799926.0946899999</v>
+        <v>995095.1311500001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1558340.09171</v>
+        <v>1556992.71486</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1205787.73863</v>
+        <v>1204444.20344</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3812058.01815</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3808129.76849</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3071399.193</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>59883.36377</v>
+        <v>59772.09637</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>27588.09086</v>
+        <v>27556.56537</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>100015.31621</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>45348.46106</v>
+        <v>45348.46064</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>47976.88174</v>
+        <v>47962.37691</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>49297.34649</v>
+        <v>48512.46655</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>31644.50358</v>
+        <v>69733.60374999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>51971.23158</v>
+        <v>63739.88772999999</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>163314.20611</v>
@@ -2696,91 +2822,106 @@
         <v>125234.6991</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>98147.99139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>97724.27776</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>161860.257</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>528513.0401100001</v>
+        <v>526566.99357</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>550973.4418799999</v>
+        <v>547937.14271</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>975121.36016</v>
+        <v>655809.7322999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>618863.5685500001</v>
+        <v>616682.24173</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>504585.4389700001</v>
+        <v>501970.63544</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>730207.36581</v>
+        <v>728220.22512</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>868665.8738099999</v>
+        <v>844923.9651199999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>747954.8631099999</v>
+        <v>931355.2434200001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1395025.8856</v>
+        <v>1393678.50875</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1080553.03953</v>
+        <v>1079209.50434</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3713910.026760001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3710405.490730001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2909538.936</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>261016.10376</v>
+        <v>260261.86498</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>365797.5326299999</v>
+        <v>362649.99381</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1322762.14376</v>
+        <v>340064.05817</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>351361.98919</v>
+        <v>347222.27285</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>313189.1493</v>
+        <v>277705.28356</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>606246.6139999999</v>
+        <v>585234.6159399999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>573712.7705999999</v>
+        <v>590854.7182</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>980619.93911</v>
+        <v>1071767.34904</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>851924.13035</v>
+        <v>841688.85642</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1113357.11311</v>
+        <v>1111656.70487</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2236712.645039999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2208835.64327</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2449632.082</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>75985.92728999999</v>
+        <v>75393.44176</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>160783.12888</v>
+        <v>159585.39937</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>110735.23324</v>
+        <v>104288.0857</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>60384.92648</v>
+        <v>60377.37512</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>71246.85397</v>
+        <v>68500.25095999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>107775.40197</v>
+        <v>105670.93188</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>101265.54176</v>
+        <v>100446.77277</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>209287.31181</v>
+        <v>208780.75087</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>186402.59711</v>
+        <v>186360.64379</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>186489.64519</v>
+        <v>186340.00828</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>728056.5802700002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>728036.50887</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>262211.603</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>185030.17647</v>
+        <v>184868.42322</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>205014.40375</v>
+        <v>203064.59444</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1212026.91052</v>
+        <v>235775.97247</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>290977.06271</v>
+        <v>286844.89773</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>241942.29533</v>
+        <v>209205.0326</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>498471.2120300001</v>
+        <v>479563.68406</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>472447.22884</v>
+        <v>490407.94543</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>771332.6272999999</v>
+        <v>862986.59817</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>665521.53324</v>
+        <v>655328.21263</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>926867.4679200001</v>
+        <v>925316.6965899999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1508656.06477</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1480799.1344</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2187420.479</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5332937.669600001</v>
+        <v>4666077.145930001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4523948.931369999</v>
+        <v>3852526.76858</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3915912.39489</v>
+        <v>3695590.35217</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6870516.91094</v>
+        <v>6168331.30819</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4534798.35587</v>
+        <v>4164204.469070001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5807241.32594</v>
+        <v>5784193.301120001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4514416.761639999</v>
+        <v>2928552.96057</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-76674.75055999988</v>
+        <v>-386079.1462600002</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2677824.90452</v>
+        <v>2560087.72338</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-840775.1663700003</v>
+        <v>-1544331.94139</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5604387.52612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5563006.78993</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3254489.392</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1265869.29979</v>
+        <v>1265119.38976</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1255312.17122</v>
+        <v>1252864.10578</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1129123.16794</v>
+        <v>1128028.0361</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1222389.29943</v>
+        <v>1221606.35798</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>895211.31316</v>
+        <v>889004.3327499999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1220850.72793</v>
+        <v>1211306.26634</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>776064.92963</v>
+        <v>751636.98964</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>548087.44075</v>
+        <v>549794.8656499999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>966214.5231600001</v>
+        <v>948336.5103199999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>561553.6280899999</v>
+        <v>463781.45797</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>616320.4065700001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>611188.1833500001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>830494.346</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4067068.36981</v>
+        <v>3400957.75617</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3268636.76015</v>
+        <v>2599662.6628</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2786789.226950001</v>
+        <v>2567562.31607</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5648127.61151</v>
+        <v>4946724.95021</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3639587.04271</v>
+        <v>3275200.13632</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4586390.598009999</v>
+        <v>4572887.034779999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3738351.83201</v>
+        <v>2176915.97093</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-624762.1913099999</v>
+        <v>-935874.0119099999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1711610.38136</v>
+        <v>1611751.21306</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1402328.79446</v>
+        <v>-2008113.39936</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4988067.11955</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4951818.60658</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2423995.046</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>22</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>